--- a/backend/wordsList/letterValuesXML.xlsx
+++ b/backend/wordsList/letterValuesXML.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,11 +34,20 @@
   <connection id="3" name="letterValueSchema2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="4" name="letterValueSchema3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="letterValueSchema4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" name="letterValueSchema5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Letter</t>
   </si>
@@ -67,9 +76,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
@@ -125,6 +131,48 @@
   </si>
   <si>
     <t>ValueSpanish</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>ValueGerman</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>ß</t>
+  </si>
+  <si>
+    <t>ë</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ñ</t>
   </si>
 </sst>
 </file>
@@ -148,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,24 +204,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,7 +279,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema4">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LetterValues">
         <xsd:complexType>
@@ -200,6 +289,7 @@
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Letter" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueDutch" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueGerman" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueSpanish" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
@@ -209,24 +299,27 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="3" Name="LetterValues_toewijzing" RootElement="LetterValues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  <Map ID="6" Name="LetterValues_toewijzing" RootElement="LetterValues" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:C27" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:C27"/>
-  <tableColumns count="3">
-    <tableColumn id="1" uniqueName="Letter" name="Letter" dataDxfId="0">
-      <xmlColumnPr mapId="3" xpath="/LetterValues/LetterValue/Letter" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:D38" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:D38"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="Letter" name="Letter" dataDxfId="1">
+      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/Letter" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ValueDutch" name="ValueDutch" dataDxfId="1">
-      <xmlColumnPr mapId="3" xpath="/LetterValues/LetterValue/ValueDutch" xmlDataType="double"/>
+    <tableColumn id="2" uniqueName="ValueDutch" name="ValueDutch" dataDxfId="0">
+      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueDutch" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="ValueSpanish" name="ValueSpanish">
-      <xmlColumnPr mapId="3" xpath="/LetterValues/LetterValue/ValueSpanish" xmlDataType="double"/>
+      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueSpanish" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="ValueGerman" name="ValueGerman">
+      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueGerman" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -530,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +639,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
+      <c r="D1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,10 +653,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>12.51</v>
-      </c>
-      <c r="C2">
-        <v>8.4700000000000006</v>
+        <v>6.39</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="D2">
+        <v>7.04</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +667,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="C3">
-        <v>17.78</v>
+        <v>9.36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D3">
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,10 +681,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="C4">
-        <v>15.98</v>
+        <v>9.39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="D4">
+        <v>8.33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,10 +695,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>14.07</v>
-      </c>
-      <c r="C5">
-        <v>14.99</v>
+        <v>7.45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="D5">
+        <v>7.36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -601,10 +709,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="C6">
-        <v>7.82</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,10 +723,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="C7">
-        <v>19.309999999999999</v>
+        <v>9.66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="D7">
+        <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,10 +737,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C8">
-        <v>18.23</v>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="D8">
+        <v>8.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,209 +751,385 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>17.62</v>
-      </c>
-      <c r="C9">
-        <v>19.3</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.36</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="C10">
-        <v>13.75</v>
+        <v>7.03</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="D10">
+        <v>5.74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>18.54</v>
-      </c>
-      <c r="C11">
-        <v>19.510000000000002</v>
+        <v>9.14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.67</v>
+      </c>
+      <c r="D11">
+        <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>17.75</v>
-      </c>
-      <c r="C12">
-        <v>19.989999999999998</v>
+        <v>8.69</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="D12">
+        <v>9.31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>16.43</v>
-      </c>
-      <c r="C13">
-        <v>15.030000000000001</v>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="D13">
+        <v>8.09</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>17.79</v>
-      </c>
-      <c r="C14">
-        <v>16.84</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="D14">
+        <v>8.65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C15">
-        <v>13.29</v>
+        <v>5.32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="D15">
+        <v>4.41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="D16">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>13.940000000000001</v>
-      </c>
-      <c r="C16">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="D17">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>18.43</v>
-      </c>
-      <c r="C17">
-        <v>17.490000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C18">
-        <v>19.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D19">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>13.59</v>
-      </c>
-      <c r="C19">
-        <v>13.129999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="D20">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>16.27</v>
-      </c>
-      <c r="C20">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="D21">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>13.21</v>
-      </c>
-      <c r="C21">
-        <v>15.370000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="D22">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="C22">
-        <v>17.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="D23">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="C23">
-        <v>18.86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="D24">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>18.48</v>
-      </c>
-      <c r="C24">
-        <v>19.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="D25">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="C25">
-        <v>19.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D26">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>19.96</v>
-      </c>
-      <c r="C26">
-        <v>18.989999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="2">
-        <v>18.61</v>
-      </c>
-      <c r="C27">
-        <v>19.53</v>
+        <v>9.25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D27">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6">
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
